--- a/input/harp-CampB-time-table.xlsx
+++ b/input/harp-CampB-time-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapmi\Desktop\summer-camp-time-table\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B9B660-66EA-4EFB-A84A-1A53FA925AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC37D28-5E25-4EFE-8CF1-01CE830871B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1508" windowWidth="18975" windowHeight="11272" activeTab="4" xr2:uid="{49A5FFD0-B874-4A88-A25B-305D472287FF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{49A5FFD0-B874-4A88-A25B-305D472287FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="1" r:id="rId1"/>
@@ -625,10 +625,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -656,93 +721,85 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -751,6 +808,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -765,72 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1238,110 +1238,110 @@
       <c r="A3" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="33" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1349,91 +1349,91 @@
       <c r="A8" s="4">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>0.5</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="33" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1441,178 +1441,178 @@
       <c r="A12" s="4">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="26"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="29"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="33" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1620,216 +1620,216 @@
       <c r="A21" s="4">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>0.625</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
@@ -1852,14 +1852,14 @@
       <c r="A33" s="4">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="6"/>
@@ -1875,10 +1875,10 @@
       <c r="A34" s="4">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1892,10 +1892,10 @@
       <c r="A35" s="4">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -1909,10 +1909,10 @@
       <c r="A36" s="4">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -1926,10 +1926,10 @@
       <c r="A37" s="4">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -1943,10 +1943,10 @@
       <c r="A38" s="4">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -1960,10 +1960,10 @@
       <c r="A39" s="4">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -1975,56 +1975,6 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="B15:M19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="B3:M6"/>
     <mergeCell ref="B7:B10"/>
@@ -2041,6 +1991,56 @@
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="M11:M14"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="B15:M19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2103,110 +2103,110 @@
       <c r="A3" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2214,91 +2214,91 @@
       <c r="A8" s="4">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>0.5</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="33" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2306,52 +2306,52 @@
       <c r="A12" s="4">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
@@ -2444,40 +2444,40 @@
       <c r="A20" s="4">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="33" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2485,216 +2485,216 @@
       <c r="A21" s="4">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>0.625</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
@@ -2717,14 +2717,14 @@
       <c r="A33" s="4">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="6"/>
@@ -2740,10 +2740,10 @@
       <c r="A34" s="4">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -2757,10 +2757,10 @@
       <c r="A35" s="4">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -2774,10 +2774,10 @@
       <c r="A36" s="4">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -2791,10 +2791,10 @@
       <c r="A37" s="4">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -2808,10 +2808,10 @@
       <c r="A38" s="4">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -2825,10 +2825,10 @@
       <c r="A39" s="4">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -2840,56 +2840,6 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="B15:M19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="B3:M6"/>
     <mergeCell ref="B7:B10"/>
@@ -2906,6 +2856,56 @@
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="M11:M14"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="B15:M19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2968,110 +2968,110 @@
       <c r="A3" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3079,91 +3079,91 @@
       <c r="A8" s="4">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>0.5</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3171,52 +3171,52 @@
       <c r="A12" s="4">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
@@ -3309,40 +3309,40 @@
       <c r="A20" s="4">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="33" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3350,216 +3350,216 @@
       <c r="A21" s="4">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>0.625</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="47" t="s">
+      <c r="F24" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="46" t="s">
+      <c r="H24" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
@@ -3582,14 +3582,14 @@
       <c r="A33" s="4">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="6"/>
@@ -3605,10 +3605,10 @@
       <c r="A34" s="4">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -3622,10 +3622,10 @@
       <c r="A35" s="4">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -3639,10 +3639,10 @@
       <c r="A36" s="4">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -3656,10 +3656,10 @@
       <c r="A37" s="4">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -3673,10 +3673,10 @@
       <c r="A38" s="4">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -3690,10 +3690,10 @@
       <c r="A39" s="4">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -3705,56 +3705,6 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="B15:M19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="B3:M6"/>
     <mergeCell ref="B7:B10"/>
@@ -3771,6 +3721,56 @@
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="M11:M14"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="B15:M19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3828,110 +3828,110 @@
       <c r="A3" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="33" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3939,91 +3939,91 @@
       <c r="A8" s="4">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>0.5</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4031,52 +4031,52 @@
       <c r="A12" s="4">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
@@ -4169,40 +4169,40 @@
       <c r="A20" s="4">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="33" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4210,216 +4210,216 @@
       <c r="A21" s="4">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>0.625</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
@@ -4442,14 +4442,14 @@
       <c r="A33" s="4">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="1"/>
@@ -4465,10 +4465,10 @@
       <c r="A34" s="4">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -4482,10 +4482,10 @@
       <c r="A35" s="4">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -4499,10 +4499,10 @@
       <c r="A36" s="4">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -4516,10 +4516,10 @@
       <c r="A37" s="4">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -4533,10 +4533,10 @@
       <c r="A38" s="4">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -4550,10 +4550,10 @@
       <c r="A39" s="4">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -4565,56 +4565,6 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="B15:M19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="B3:M6"/>
     <mergeCell ref="B7:B10"/>
@@ -4631,6 +4581,56 @@
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="M11:M14"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="B15:M19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4640,7 +4640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54275080-B6DE-443E-8A56-FCCA721F8B7E}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -4684,106 +4684,106 @@
       <c r="A3" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="42" t="s">
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4791,63 +4791,63 @@
       <c r="A10" s="4">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>0.5</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="42" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4855,14 +4855,14 @@
       <c r="A14" s="4">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
@@ -4935,88 +4935,88 @@
       <c r="A20" s="4">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="75"/>
-      <c r="E20" s="71" t="s">
+      <c r="D20" s="64"/>
+      <c r="E20" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="64"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
     </row>
     <row r="21" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="67"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="56"/>
     </row>
     <row r="22" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="67"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
     </row>
     <row r="23" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>0.625</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="70"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="59"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -5024,104 +5024,104 @@
       <c r="A25" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
@@ -5139,14 +5139,14 @@
       <c r="A33" s="4">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="6"/>
@@ -5157,10 +5157,10 @@
       <c r="A34" s="4">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -5169,10 +5169,10 @@
       <c r="A35" s="4">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -5181,10 +5181,10 @@
       <c r="A36" s="4">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -5193,10 +5193,10 @@
       <c r="A37" s="4">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -5205,10 +5205,10 @@
       <c r="A38" s="4">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -5217,16 +5217,47 @@
       <c r="A39" s="4">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B3:I6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:E14"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="B15:I19"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G24:G27"/>
     <mergeCell ref="B33:B39"/>
     <mergeCell ref="C33:C39"/>
     <mergeCell ref="D33:D39"/>
@@ -5243,37 +5274,6 @@
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="F28:F31"/>
     <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B15:I19"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B3:I6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:E14"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5283,8 +5283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B1695B-ECED-441B-A208-4A454C8BA59E}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="78" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -5329,7 +5329,7 @@
       <c r="A6" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5337,43 +5337,43 @@
       <c r="A7" s="4">
         <v>0.46875</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="48"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B8" s="47"/>
+      <c r="B8" s="48"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="48"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>0.5</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="48"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="48"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="48"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="48"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
@@ -5419,7 +5419,7 @@
       <c r="A20" s="4">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="48" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5427,37 +5427,37 @@
       <c r="A21" s="4">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="48"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>0.625</v>
       </c>
-      <c r="B22" s="47"/>
+      <c r="B22" s="48"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B23" s="47"/>
+      <c r="B23" s="48"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B24" s="47"/>
+      <c r="B24" s="48"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>0.65625</v>
       </c>
-      <c r="B25" s="47"/>
+      <c r="B25" s="48"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="48" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5465,19 +5465,19 @@
       <c r="A27" s="4">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B27" s="47"/>
+      <c r="B27" s="48"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B28" s="47"/>
+      <c r="B28" s="48"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="44" t="s">
         <v>44</v>
       </c>
     </row>
@@ -5485,13 +5485,13 @@
       <c r="A30" s="4">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="44"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>0.718749999999999</v>
       </c>
-      <c r="B31" s="46"/>
+      <c r="B31" s="44"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
@@ -5540,44 +5540,80 @@
       <c r="B38" s="81"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="4">
+        <v>0.80208333333333703</v>
+      </c>
       <c r="B39" s="81"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="4">
+        <v>0.812500000000004</v>
+      </c>
       <c r="B40" s="81"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="4">
+        <v>0.82291666666667096</v>
+      </c>
       <c r="B41" s="80" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="4">
+        <v>0.83333333333333803</v>
+      </c>
       <c r="B42" s="80"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="4">
+        <v>0.843750000000005</v>
+      </c>
       <c r="B43" s="80"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B44" s="46" t="s">
+      <c r="A44" s="4">
+        <v>0.85416666666667196</v>
+      </c>
+      <c r="B44" s="44" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B45" s="46"/>
+      <c r="A45" s="4">
+        <v>0.86458333333333903</v>
+      </c>
+      <c r="B45" s="44"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B46" s="46"/>
+      <c r="A46" s="4">
+        <v>0.875000000000006</v>
+      </c>
+      <c r="B46" s="44"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B47" s="46"/>
+      <c r="A47" s="4">
+        <v>0.88541666666667296</v>
+      </c>
+      <c r="B47" s="44"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B48" s="46"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B49" s="46"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B50" s="46"/>
+      <c r="A48" s="4">
+        <v>0.89583333333334003</v>
+      </c>
+      <c r="B48" s="44"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="4">
+        <v>0.90625000000000699</v>
+      </c>
+      <c r="B49" s="44"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="4">
+        <v>0.91666666666667396</v>
+      </c>
+      <c r="B50" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/input/harp-CampB-time-table.xlsx
+++ b/input/harp-CampB-time-table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapmi\Desktop\summer-camp-time-table\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmski\Desktop\Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC37D28-5E25-4EFE-8CF1-01CE830871B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD508884-AD07-4C8E-BFA3-C7510078C618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="5" xr2:uid="{49A5FFD0-B874-4A88-A25B-305D472287FF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="3" xr2:uid="{49A5FFD0-B874-4A88-A25B-305D472287FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="58">
   <si>
     <t>Teacher</t>
   </si>
@@ -156,18 +156,6 @@
   <si>
     <t>Briefing for Saturday
 (Room zzz)</t>
-  </si>
-  <si>
-    <t>Harp MasterClass by Judy LOMAN
-(Room Judy)
-Harp MasterClass by Naoko YOSHINO
-(Room Naoko)</t>
-  </si>
-  <si>
-    <t>Harp MasterClass by Judy LOMAN
-(Room Judy)
-Harp MasterClass by Gwyneth WENTINK
-(Room Gwyneth)</t>
   </si>
   <si>
     <t>Harp MasterClass by Judy LOMAN
@@ -232,8 +220,37 @@
 H11, H12</t>
   </si>
   <si>
+    <t>Harp MasterClass by Judy LOMAN
+(Room Judy)
+or
+Harp MasterClass by Naoko YOSHINO
+(Room Naoko)</t>
+  </si>
+  <si>
+    <t>H4, H5, H9, H1 MasterClass by Judy LOMAN (Room Judy) or
+H4, H5, H9, H1 MasterClass by Naoko YOSHINO (Room Naoko)</t>
+  </si>
+  <si>
+    <t>H2, H3, H11, H12 Harp MasterClass by Judy LOMAN (Room Judy) or 
+H2, H3, H11, H12 Harp MasterClass by Naoko YOSHINO (Room Naoko)</t>
+  </si>
+  <si>
+    <t>H11, H12, H2, H3 MasterClass by Judy LOMAN (Room Judy) or
+H11, H12, H2, H3 MasterClass by Naoko YOSHINO (Room Naoko)</t>
+  </si>
+  <si>
+    <t>H6, H7, H8, H10 Harp MasterClass by Judy LOMAN (Room Judy) or 
+H6, H7, H8, H10 Harp MasterClass by Naoko YOSHINO (Room Naoko)</t>
+  </si>
+  <si>
+    <t>Harp MasterClass by Judy LOMAN
+(Room Judy)
+or
+Harp MasterClass by Gwyneth WENTINK
+(Room Gwyneth)</t>
+  </si>
+  <si>
     <t>Harp MasterClass by Gwyneth WENTINK**
-(Room Gwyneth)
 H2, H3</t>
   </si>
 </sst>
@@ -596,11 +613,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -609,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -625,162 +640,162 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -799,39 +814,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -846,6 +828,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1238,110 +1238,110 @@
       <c r="A3" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="42"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="33" t="s">
+      <c r="M7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1349,91 +1349,91 @@
       <c r="A8" s="4">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>0.5</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="33" t="s">
+      <c r="L11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="33" t="s">
+      <c r="M11" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1441,178 +1441,178 @@
       <c r="A12" s="4">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="24"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="23"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="27"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="26"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="27"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="26"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="30"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="J20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="33" t="s">
+      <c r="K20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="33" t="s">
+      <c r="L20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="33" t="s">
+      <c r="M20" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1620,216 +1620,216 @@
       <c r="A21" s="4">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>0.625</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
@@ -1852,14 +1852,14 @@
       <c r="A33" s="4">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14" t="s">
+      <c r="D33" s="37"/>
+      <c r="E33" s="37" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="6"/>
@@ -1875,10 +1875,10 @@
       <c r="A34" s="4">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1892,10 +1892,10 @@
       <c r="A35" s="4">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -1909,10 +1909,10 @@
       <c r="A36" s="4">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -1926,10 +1926,10 @@
       <c r="A37" s="4">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -1943,10 +1943,10 @@
       <c r="A38" s="4">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -1960,10 +1960,10 @@
       <c r="A39" s="4">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -1975,6 +1975,56 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B15:M19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="B3:M6"/>
     <mergeCell ref="B7:B10"/>
@@ -1991,56 +2041,6 @@
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="M11:M14"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="B15:M19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2103,110 +2103,110 @@
       <c r="A3" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="42"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="19"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="33" t="s">
+      <c r="M7" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2214,91 +2214,91 @@
       <c r="A8" s="4">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>0.5</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="33" t="s">
+      <c r="L11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="33" t="s">
+      <c r="M11" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2306,52 +2306,52 @@
       <c r="A12" s="4">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
@@ -2444,40 +2444,40 @@
       <c r="A20" s="4">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="J20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="33" t="s">
+      <c r="K20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="33" t="s">
+      <c r="L20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M20" s="33" t="s">
+      <c r="M20" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2485,216 +2485,216 @@
       <c r="A21" s="4">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>0.625</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
@@ -2717,14 +2717,14 @@
       <c r="A33" s="4">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14" t="s">
+      <c r="D33" s="37"/>
+      <c r="E33" s="37" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="6"/>
@@ -2740,10 +2740,10 @@
       <c r="A34" s="4">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -2757,10 +2757,10 @@
       <c r="A35" s="4">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -2774,10 +2774,10 @@
       <c r="A36" s="4">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -2791,10 +2791,10 @@
       <c r="A37" s="4">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -2808,10 +2808,10 @@
       <c r="A38" s="4">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -2825,10 +2825,10 @@
       <c r="A39" s="4">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -2840,6 +2840,56 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B15:M19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="B3:M6"/>
     <mergeCell ref="B7:B10"/>
@@ -2856,56 +2906,6 @@
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="M11:M14"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="B15:M19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2968,110 +2968,110 @@
       <c r="A3" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="33" t="s">
+      <c r="H7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="33" t="s">
+      <c r="I7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="33" t="s">
+      <c r="M7" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3079,91 +3079,91 @@
       <c r="A8" s="4">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>0.5</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="33" t="s">
+      <c r="J11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="33" t="s">
+      <c r="L11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="33" t="s">
+      <c r="M11" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3171,52 +3171,52 @@
       <c r="A12" s="4">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
@@ -3309,40 +3309,40 @@
       <c r="A20" s="4">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="J20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="33" t="s">
+      <c r="K20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="33" t="s">
+      <c r="L20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="33" t="s">
+      <c r="M20" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3350,216 +3350,216 @@
       <c r="A21" s="4">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>0.625</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="47" t="s">
+      <c r="D24" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="44" t="s">
+      <c r="E24" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="48" t="s">
+      <c r="F24" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="44" t="s">
+      <c r="G24" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="44" t="s">
+      <c r="H24" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
@@ -3582,14 +3582,14 @@
       <c r="A33" s="4">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14" t="s">
+      <c r="D33" s="37"/>
+      <c r="E33" s="37" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="6"/>
@@ -3605,10 +3605,10 @@
       <c r="A34" s="4">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -3622,10 +3622,10 @@
       <c r="A35" s="4">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -3639,10 +3639,10 @@
       <c r="A36" s="4">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -3656,10 +3656,10 @@
       <c r="A37" s="4">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="45"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -3673,10 +3673,10 @@
       <c r="A38" s="4">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -3690,10 +3690,10 @@
       <c r="A39" s="4">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -3705,6 +3705,56 @@
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B15:M19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="B3:M6"/>
     <mergeCell ref="B7:B10"/>
@@ -3721,15 +3771,828 @@
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="M11:M14"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2C6992-1204-429A-8E3C-81CAA4D525FC}">
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="13" width="15.640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="4">
+        <v>0.44791666666666702</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="4">
+        <v>0.46875</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" s="4">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" s="4">
+        <v>0.48958333333333298</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" s="4">
+        <v>0.51041666666666696</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" s="4">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="4">
+        <v>0.53125</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="4">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="4">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" s="4">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19" s="4">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" s="4">
+        <v>0.59375</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" s="4">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22" s="4">
+        <v>0.61458333333333304</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A24" s="4">
+        <v>0.63541666666666696</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25" s="4">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A26" s="4">
+        <v>0.65625</v>
+      </c>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A27" s="4">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A28" s="4">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A29" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A30" s="4">
+        <v>0.69791666666666696</v>
+      </c>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A31" s="4">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A32" s="4">
+        <v>0.718749999999999</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A33" s="4">
+        <v>0.72916666666666496</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A34" s="4">
+        <v>0.73958333333333104</v>
+      </c>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A35" s="4">
+        <v>0.749999999999997</v>
+      </c>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A36" s="4">
+        <v>0.76041666666666297</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A37" s="4">
+        <v>0.77083333333332904</v>
+      </c>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A38" s="4">
+        <v>0.781249999999996</v>
+      </c>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A39" s="4">
+        <v>0.79166666666666197</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="66">
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
     <mergeCell ref="B15:M19"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="C20:C23"/>
@@ -3743,828 +4606,15 @@
     <mergeCell ref="K20:K23"/>
     <mergeCell ref="L20:L23"/>
     <mergeCell ref="M20:M23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2C6992-1204-429A-8E3C-81CAA4D525FC}">
-  <dimension ref="A1:M39"/>
-  <sheetViews>
-    <sheetView zoomScale="79" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="13" width="15.640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="4">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="4">
-        <v>0.4375</v>
-      </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="4">
-        <v>0.44791666666666702</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="4">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="4">
-        <v>0.46875</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="4">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="4">
-        <v>0.48958333333333298</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="4">
-        <v>0.51041666666666696</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="4">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="4">
-        <v>0.53125</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="4">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="4">
-        <v>0.55208333333333304</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="4">
-        <v>0.5625</v>
-      </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="4">
-        <v>0.57291666666666696</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="4">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" s="4">
-        <v>0.59375</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="K20" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="4">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="4">
-        <v>0.61458333333333304</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A23" s="4">
-        <v>0.625</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="4">
-        <v>0.63541666666666696</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="4">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A26" s="4">
-        <v>0.65625</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="4">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A28" s="4">
-        <v>0.67708333333333304</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29" s="4">
-        <v>0.6875</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A30" s="4">
-        <v>0.69791666666666696</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A31" s="4">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A32" s="4">
-        <v>0.718749999999999</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A33" s="4">
-        <v>0.72916666666666496</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A34" s="4">
-        <v>0.73958333333333104</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A35" s="4">
-        <v>0.749999999999997</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A36" s="4">
-        <v>0.76041666666666297</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A37" s="4">
-        <v>0.77083333333332904</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A38" s="4">
-        <v>0.781249999999996</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A39" s="4">
-        <v>0.79166666666666197</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="66">
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="B3:M6"/>
     <mergeCell ref="B7:B10"/>
@@ -4581,56 +4631,6 @@
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="M11:M14"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="B15:M19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4638,19 +4638,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54275080-B6DE-443E-8A56-FCCA721F8B7E}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="9" width="20.640625" customWidth="1"/>
+    <col min="10" max="10" width="92" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4671,7 +4672,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -4680,450 +4681,487 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="76"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D7" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="54"/>
+      <c r="F7" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="13" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="77" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>0.5</v>
       </c>
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D11" s="55"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="13" t="s">
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="77" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-    </row>
-    <row r="20" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="69" t="s">
-        <v>52</v>
+      <c r="B20" s="59" t="s">
+        <v>50</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D20" s="64"/>
-      <c r="E20" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-    </row>
-    <row r="21" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E20" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="70"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="65"/>
       <c r="D21" s="66"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="56"/>
-    </row>
-    <row r="22" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E21" s="66"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="70"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="65"/>
       <c r="D22" s="66"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
-    </row>
-    <row r="23" spans="1:9" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E22" s="66"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>0.625</v>
       </c>
-      <c r="B23" s="71"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="67"/>
       <c r="D23" s="68"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E23" s="68"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="9"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="38" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J24" s="42"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <v>0.718749999999999</v>
       </c>
@@ -5139,14 +5177,14 @@
       <c r="A33" s="4">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14" t="s">
+      <c r="D33" s="37"/>
+      <c r="E33" s="37" t="s">
         <v>31</v>
       </c>
       <c r="F33" s="6"/>
@@ -5157,10 +5195,10 @@
       <c r="A34" s="4">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -5169,10 +5207,10 @@
       <c r="A35" s="4">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -5181,10 +5219,10 @@
       <c r="A36" s="4">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -5193,10 +5231,10 @@
       <c r="A37" s="4">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -5205,10 +5243,10 @@
       <c r="A38" s="4">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -5217,63 +5255,62 @@
       <c r="A39" s="4">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="B3:I6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:E14"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="B15:I19"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G24:G27"/>
+  <mergeCells count="46">
     <mergeCell ref="B33:B39"/>
     <mergeCell ref="C33:C39"/>
     <mergeCell ref="D33:D39"/>
     <mergeCell ref="E33:E39"/>
-    <mergeCell ref="F20:I23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="C20:D23"/>
-    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="G24:G27"/>
     <mergeCell ref="H24:H27"/>
     <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="C28:C31"/>
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="F28:F31"/>
     <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="B15:J19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="B3:J6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:E14"/>
+    <mergeCell ref="F7:I8"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="F11:I12"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5283,8 +5320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B1695B-ECED-441B-A208-4A454C8BA59E}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="78" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:A50"/>
+    <sheetView zoomScale="78" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -5303,201 +5340,201 @@
       <c r="A2" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B2" s="80" t="s">
-        <v>38</v>
+      <c r="B2" s="69" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B3" s="80"/>
+      <c r="B3" s="69"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>0.4375</v>
       </c>
-      <c r="B4" s="80"/>
+      <c r="B4" s="69"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B5" s="80"/>
+      <c r="B5" s="69"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>39</v>
+      <c r="B6" s="47" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>0.46875</v>
       </c>
-      <c r="B7" s="48"/>
+      <c r="B7" s="47"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B8" s="48"/>
+      <c r="B8" s="47"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B9" s="48"/>
+      <c r="B9" s="47"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>0.5</v>
       </c>
-      <c r="B10" s="48"/>
+      <c r="B10" s="47"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="47"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B12" s="48"/>
+      <c r="B12" s="47"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="48"/>
+      <c r="B13" s="47"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B14" s="82" t="s">
-        <v>40</v>
+      <c r="B14" s="71" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="72"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>0.5625</v>
       </c>
-      <c r="B16" s="83"/>
+      <c r="B16" s="72"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B17" s="83"/>
+      <c r="B17" s="72"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B18" s="84"/>
+      <c r="B18" s="73"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>0.59375</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B20" s="48" t="s">
-        <v>42</v>
+      <c r="B20" s="47" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B21" s="48"/>
+      <c r="B21" s="47"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>0.625</v>
       </c>
-      <c r="B22" s="48"/>
+      <c r="B22" s="47"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B23" s="48"/>
+      <c r="B23" s="47"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B24" s="48"/>
+      <c r="B24" s="47"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>0.65625</v>
       </c>
-      <c r="B25" s="48"/>
+      <c r="B25" s="47"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B26" s="48" t="s">
-        <v>43</v>
+      <c r="B26" s="47" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B27" s="48"/>
+      <c r="B27" s="47"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B28" s="48"/>
+      <c r="B28" s="47"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B29" s="44" t="s">
-        <v>44</v>
+      <c r="B29" s="46" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B30" s="44"/>
+      <c r="B30" s="46"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>0.718749999999999</v>
       </c>
-      <c r="B31" s="44"/>
+      <c r="B31" s="46"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B32" s="80" t="s">
+      <c r="B32" s="69" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5505,115 +5542,79 @@
       <c r="A33" s="4">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B33" s="80"/>
+      <c r="B33" s="69"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <v>0.749999999999997</v>
       </c>
-      <c r="B34" s="80"/>
+      <c r="B34" s="69"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B35" s="80"/>
+      <c r="B35" s="69"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B36" s="81" t="s">
-        <v>45</v>
+      <c r="B36" s="70" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
         <v>0.781249999999996</v>
       </c>
-      <c r="B37" s="81"/>
+      <c r="B37" s="70"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B38" s="81"/>
+      <c r="B38" s="70"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="4">
-        <v>0.80208333333333703</v>
-      </c>
-      <c r="B39" s="81"/>
+      <c r="B39" s="70"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" s="4">
-        <v>0.812500000000004</v>
-      </c>
-      <c r="B40" s="81"/>
+      <c r="B40" s="70"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="4">
-        <v>0.82291666666667096</v>
-      </c>
-      <c r="B41" s="80" t="s">
-        <v>46</v>
+      <c r="B41" s="69" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="4">
-        <v>0.83333333333333803</v>
-      </c>
-      <c r="B42" s="80"/>
+      <c r="B42" s="69"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="4">
-        <v>0.843750000000005</v>
-      </c>
-      <c r="B43" s="80"/>
+      <c r="B43" s="69"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="4">
-        <v>0.85416666666667196</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>47</v>
+      <c r="B44" s="46" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="4">
-        <v>0.86458333333333903</v>
-      </c>
-      <c r="B45" s="44"/>
+      <c r="B45" s="46"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="4">
-        <v>0.875000000000006</v>
-      </c>
-      <c r="B46" s="44"/>
+      <c r="B46" s="46"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="4">
-        <v>0.88541666666667296</v>
-      </c>
-      <c r="B47" s="44"/>
+      <c r="B47" s="46"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="4">
-        <v>0.89583333333334003</v>
-      </c>
-      <c r="B48" s="44"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="4">
-        <v>0.90625000000000699</v>
-      </c>
-      <c r="B49" s="44"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="4">
-        <v>0.91666666666667396</v>
-      </c>
-      <c r="B50" s="44"/>
+      <c r="B48" s="46"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B49" s="46"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B50" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/input/harp-CampB-time-table.xlsx
+++ b/input/harp-CampB-time-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmski\Desktop\Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A8A9AD-80F6-4488-8D06-736BAFEDAA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F813A27-AC01-4BFC-82B8-A95E3BC5277F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="503" windowWidth="24196" windowHeight="13875" activeTab="4" xr2:uid="{49A5FFD0-B874-4A88-A25B-305D472287FF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="2" xr2:uid="{49A5FFD0-B874-4A88-A25B-305D472287FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>Naoko YOSHINO</t>
   </si>
   <si>
-    <t>Liya Huang</t>
-  </si>
-  <si>
     <t>Gwyneth WENTINK</t>
   </si>
   <si>
@@ -154,13 +151,6 @@
 (Room zzz)</t>
   </si>
   <si>
-    <t>Harp MasterClass by Judy LOMAN
-(Room Judy)
-Harp MasterClass by Gwyneth WENTINK
-(Room Gwyneth)
-H1, H4, H5, H6, H7, H8, H9, H10</t>
-  </si>
-  <si>
     <t>Check in Maritime Museum
 Briefing for Saturday Concert 
 Maritime Museum Tour</t>
@@ -202,14 +192,6 @@
   <si>
     <t>Harp MasterClass by Judy LOMAN**
 H4, H5</t>
-  </si>
-  <si>
-    <t>Harp MasterClass by Naoko Yoshino**
-H6, H7</t>
-  </si>
-  <si>
-    <t>Harp MasterClass by Naoko Yoshino**
-H1, H9</t>
   </si>
   <si>
     <t>Harp MasterClass by Judy LOMAN**
@@ -223,10 +205,6 @@
 (Room Naoko)</t>
   </si>
   <si>
-    <t>H4, H5, H9, H1 MasterClass by Judy LOMAN (Room Judy) or
-H4, H5, H9, H1 MasterClass by Naoko YOSHINO (Room Naoko)</t>
-  </si>
-  <si>
     <t>H2, H3, H11, H12 Harp MasterClass by Judy LOMAN (Room Judy) or 
 H2, H3, H11, H12 Harp MasterClass by Naoko YOSHINO (Room Naoko)</t>
   </si>
@@ -250,10 +228,6 @@
 H2, H3</t>
   </si>
   <si>
-    <t>Harp Regulation Workshop
-(Room 204)</t>
-  </si>
-  <si>
     <t>Group 4, 7, 8, 9 Group Activity
 (Room Group Activity)</t>
   </si>
@@ -261,6 +235,34 @@
     <t>Group 1, 2, 3, 5, 6 
 Group Activity
 (Room Group Activity)</t>
+  </si>
+  <si>
+    <t>Liya HUANG</t>
+  </si>
+  <si>
+    <t>Harp MasterClass by Naoko YOSHINO**
+H6, H7</t>
+  </si>
+  <si>
+    <t>Harp MasterClass by Naoko YOSHINO**
+H1, H9</t>
+  </si>
+  <si>
+    <t>Harp MasterClass by Judy LOMAN
+(Room Judy) 
+or
+Harp MasterClass by Gwyneth WENTINK
+(Room Gwyneth)
+H1, H4, H5, H6, H7, H8, H9, H10</t>
+  </si>
+  <si>
+    <t>H4, H5, H9, H1 MasterClass by Judy LOMAN (Room Judy)
+ or
+H4, H5, H9, H1 MasterClass by Naoko YOSHINO (Room Naoko)</t>
+  </si>
+  <si>
+    <t>Harp Regulation Workshop
+(Room 204)</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1195,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F27"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1215,10 +1217,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1231,7 +1233,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="3"/>
@@ -1248,7 +1250,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -1318,40 +1320,40 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
@@ -1410,40 +1412,40 @@
         <v>0.5</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="E11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>18</v>
-      </c>
       <c r="F11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="J11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="M11" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
@@ -1502,7 +1504,7 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -1589,40 +1591,40 @@
         <v>0.59375</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="D20" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="E20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="F20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="I20" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="J20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="L20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="M20" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
@@ -1681,28 +1683,28 @@
         <v>0.63541666666666696</v>
       </c>
       <c r="B24" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="30" t="s">
+      <c r="E24" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="34" t="s">
+      <c r="G24" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="H24" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="I24" s="33" t="s">
         <v>24</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>25</v>
       </c>
       <c r="J24" s="41"/>
       <c r="K24" s="41"/>
@@ -1765,22 +1767,22 @@
         <v>0.67708333333333304</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="E28" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="F28" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="G28" s="38" t="s">
         <v>29</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>30</v>
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
@@ -1862,14 +1864,14 @@
         <v>0.72916666666666496</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="37"/>
       <c r="E33" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -2060,7 +2062,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2080,10 +2082,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2096,7 +2098,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="3"/>
@@ -2113,7 +2115,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -2183,40 +2185,40 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>17</v>
-      </c>
       <c r="J7" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
@@ -2275,40 +2277,40 @@
         <v>0.5</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="M11" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
@@ -2367,7 +2369,7 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -2454,40 +2456,40 @@
         <v>0.59375</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="E20" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>17</v>
-      </c>
       <c r="F20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="9" t="s">
+      <c r="L20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="M20" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
@@ -2546,28 +2548,28 @@
         <v>0.63541666666666696</v>
       </c>
       <c r="B24" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="30" t="s">
+      <c r="E24" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="34" t="s">
+      <c r="G24" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="H24" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="I24" s="33" t="s">
         <v>24</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>25</v>
       </c>
       <c r="J24" s="41"/>
       <c r="K24" s="41"/>
@@ -2630,22 +2632,22 @@
         <v>0.67708333333333304</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="E28" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="F28" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="G28" s="38" t="s">
         <v>29</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>30</v>
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
@@ -2727,14 +2729,14 @@
         <v>0.72916666666666496</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="37"/>
       <c r="E33" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -2924,7 +2926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDC7D5B-35F7-44FF-80A9-1A3FB56DDEE9}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:M6"/>
     </sheetView>
   </sheetViews>
@@ -2945,10 +2947,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2961,7 +2963,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="3"/>
@@ -2978,7 +2980,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -3048,40 +3050,40 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>18</v>
-      </c>
       <c r="D7" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>16</v>
-      </c>
       <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="H7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
@@ -3140,40 +3142,40 @@
         <v>0.5</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="9" t="s">
+      <c r="M11" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
@@ -3232,7 +3234,7 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -3319,40 +3321,40 @@
         <v>0.59375</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="D20" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="I20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="9" t="s">
+      <c r="M20" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
@@ -3411,28 +3413,28 @@
         <v>0.63541666666666696</v>
       </c>
       <c r="B24" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="45" t="s">
+      <c r="E24" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="47" t="s">
+      <c r="G24" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="H24" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="46" t="s">
+      <c r="I24" s="46" t="s">
         <v>24</v>
-      </c>
-      <c r="I24" s="46" t="s">
-        <v>25</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -3495,22 +3497,22 @@
         <v>0.67708333333333304</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="E28" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="F28" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="34" t="s">
+      <c r="G28" s="33" t="s">
         <v>29</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>30</v>
       </c>
       <c r="H28" s="41"/>
       <c r="I28" s="41"/>
@@ -3592,14 +3594,14 @@
         <v>0.72916666666666496</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="37"/>
       <c r="E33" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -3790,7 +3792,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3810,10 +3812,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -3826,7 +3828,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="3"/>
@@ -3838,7 +3840,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -3908,40 +3910,40 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="E7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="J7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
@@ -4000,40 +4002,40 @@
         <v>0.5</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>18</v>
-      </c>
       <c r="E11" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="I11" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="M11" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
@@ -4092,7 +4094,7 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -4179,40 +4181,40 @@
         <v>0.59375</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="D20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="E20" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="J20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="L20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="M20" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
@@ -4271,28 +4273,28 @@
         <v>0.63541666666666696</v>
       </c>
       <c r="B24" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="30" t="s">
+      <c r="E24" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="34" t="s">
+      <c r="G24" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="H24" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="I24" s="33" t="s">
         <v>24</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>25</v>
       </c>
       <c r="J24" s="41"/>
       <c r="K24" s="41"/>
@@ -4355,22 +4357,22 @@
         <v>0.67708333333333304</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="E28" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="F28" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="G28" s="38" t="s">
         <v>29</v>
-      </c>
-      <c r="G28" s="38" t="s">
-        <v>30</v>
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
@@ -4452,14 +4454,14 @@
         <v>0.72916666666666496</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="37"/>
       <c r="E33" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -4649,8 +4651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54275080-B6DE-443E-8A56-FCCA721F8B7E}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -4671,10 +4673,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4683,7 +4685,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="3"/>
@@ -4695,7 +4697,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
@@ -4748,28 +4750,28 @@
       <c r="I6" s="44"/>
       <c r="J6" s="44"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>0.45833333333333298</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E7" s="54"/>
       <c r="F7" s="58" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G7" s="59"/>
       <c r="H7" s="59"/>
       <c r="I7" s="59"/>
       <c r="J7" s="47" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
@@ -4795,16 +4797,16 @@
       <c r="D9" s="55"/>
       <c r="E9" s="54"/>
       <c r="F9" s="42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J9" s="9"/>
     </row>
@@ -4827,21 +4829,21 @@
         <v>0.5</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D11" s="55"/>
       <c r="E11" s="54"/>
       <c r="F11" s="58" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G11" s="59"/>
       <c r="H11" s="59"/>
       <c r="I11" s="59"/>
       <c r="J11" s="47" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
@@ -4867,16 +4869,16 @@
       <c r="D13" s="55"/>
       <c r="E13" s="54"/>
       <c r="F13" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="42" t="s">
-        <v>15</v>
-      </c>
       <c r="I13" s="63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J13" s="9"/>
     </row>
@@ -4899,7 +4901,7 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -4971,17 +4973,17 @@
         <v>0.59375</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D20" s="66"/>
       <c r="E20" s="66" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F20" s="58" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="G20" s="59"/>
       <c r="H20" s="59"/>
@@ -5035,28 +5037,28 @@
         <v>0.63541666666666696</v>
       </c>
       <c r="B24" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>21</v>
-      </c>
       <c r="E24" s="38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G24" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="I24" s="38" t="s">
         <v>24</v>
-      </c>
-      <c r="I24" s="38" t="s">
-        <v>25</v>
       </c>
       <c r="J24" s="42"/>
     </row>
@@ -5107,22 +5109,22 @@
         <v>0.67708333333333304</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="E28" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="38" t="s">
-        <v>28</v>
-      </c>
       <c r="F28" s="40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28" s="42"/>
       <c r="I28" s="42"/>
@@ -5187,14 +5189,14 @@
         <v>0.72916666666666496</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="37"/>
       <c r="E33" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
@@ -5341,7 +5343,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -5350,7 +5352,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -5376,7 +5378,7 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -5426,7 +5428,7 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -5458,7 +5460,7 @@
         <v>0.59375</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -5466,7 +5468,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -5504,7 +5506,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -5524,7 +5526,7 @@
         <v>0.69791666666666696</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
@@ -5544,7 +5546,7 @@
         <v>0.72916666666666496</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
@@ -5570,7 +5572,7 @@
         <v>0.77083333333332904</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
@@ -5593,7 +5595,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B41" s="75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -5604,7 +5606,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B44" s="46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">

--- a/input/harp-CampB-time-table.xlsx
+++ b/input/harp-CampB-time-table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmski\Desktop\Timetable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapmi\Desktop\summer-camp-time-table\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F813A27-AC01-4BFC-82B8-A95E3BC5277F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345ECC48-EAA9-4086-9C7A-1554C3F4A648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="2" xr2:uid="{49A5FFD0-B874-4A88-A25B-305D472287FF}"/>
+    <workbookView xWindow="338" yWindow="653" windowWidth="14969" windowHeight="11272" activeTab="5" xr2:uid="{49A5FFD0-B874-4A88-A25B-305D472287FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="1" r:id="rId1"/>
@@ -651,10 +651,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -682,93 +747,46 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -777,6 +795,39 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -791,57 +842,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1249,110 +1249,110 @@
       <c r="A3" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="33" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1360,91 +1360,91 @@
       <c r="A8" s="4">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>0.5</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1452,178 +1452,178 @@
       <c r="A12" s="4">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="26"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="27"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="29"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1631,216 +1631,216 @@
       <c r="A21" s="4">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>0.625</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
@@ -1863,14 +1863,14 @@
       <c r="A33" s="4">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
         <v>30</v>
       </c>
       <c r="F33" s="6"/>
@@ -1886,10 +1886,10 @@
       <c r="A34" s="4">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -1903,10 +1903,10 @@
       <c r="A35" s="4">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -1920,10 +1920,10 @@
       <c r="A36" s="4">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -1937,10 +1937,10 @@
       <c r="A37" s="4">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -1954,10 +1954,10 @@
       <c r="A38" s="4">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -1971,10 +1971,10 @@
       <c r="A39" s="4">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -1986,56 +1986,6 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="B15:M19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="B3:M6"/>
     <mergeCell ref="B7:B10"/>
@@ -2052,6 +2002,56 @@
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="M11:M14"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="B15:M19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2114,110 +2114,110 @@
       <c r="A3" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="16"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="42"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="33" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2225,91 +2225,91 @@
       <c r="A8" s="4">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>0.5</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2317,52 +2317,52 @@
       <c r="A12" s="4">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
@@ -2455,40 +2455,40 @@
       <c r="A20" s="4">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="33" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2496,216 +2496,216 @@
       <c r="A21" s="4">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>0.625</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
@@ -2728,14 +2728,14 @@
       <c r="A33" s="4">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
         <v>30</v>
       </c>
       <c r="F33" s="6"/>
@@ -2751,10 +2751,10 @@
       <c r="A34" s="4">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -2768,10 +2768,10 @@
       <c r="A35" s="4">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -2785,10 +2785,10 @@
       <c r="A36" s="4">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -2802,10 +2802,10 @@
       <c r="A37" s="4">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -2819,10 +2819,10 @@
       <c r="A38" s="4">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -2836,10 +2836,10 @@
       <c r="A39" s="4">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -2851,56 +2851,6 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="B15:M19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="B3:M6"/>
     <mergeCell ref="B7:B10"/>
@@ -2917,833 +2867,15 @@
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="M11:M14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDC7D5B-35F7-44FF-80A9-1A3FB56DDEE9}">
-  <dimension ref="A1:M39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="13" width="15.640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A3" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A4" s="4">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A5" s="4">
-        <v>0.4375</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A6" s="4">
-        <v>0.44791666666666702</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A7" s="4">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="4">
-        <v>0.46875</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A9" s="4">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A10" s="4">
-        <v>0.48958333333333298</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A11" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="4">
-        <v>0.51041666666666696</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A13" s="4">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="4">
-        <v>0.53125</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="4">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="4">
-        <v>0.55208333333333304</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="4">
-        <v>0.5625</v>
-      </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="4">
-        <v>0.57291666666666696</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="4">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" s="4">
-        <v>0.59375</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="4">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="4">
-        <v>0.61458333333333304</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A23" s="4">
-        <v>0.625</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="4">
-        <v>0.63541666666666696</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="4">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A26" s="4">
-        <v>0.65625</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="4">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A28" s="4">
-        <v>0.67708333333333304</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29" s="4">
-        <v>0.6875</v>
-      </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A30" s="4">
-        <v>0.69791666666666696</v>
-      </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A31" s="4">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A32" s="4">
-        <v>0.718749999999999</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A33" s="4">
-        <v>0.72916666666666496</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A34" s="4">
-        <v>0.73958333333333104</v>
-      </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A35" s="4">
-        <v>0.749999999999997</v>
-      </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A36" s="4">
-        <v>0.76041666666666297</v>
-      </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A37" s="4">
-        <v>0.77083333333332904</v>
-      </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A38" s="4">
-        <v>0.781249999999996</v>
-      </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A39" s="4">
-        <v>0.79166666666666197</v>
-      </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
     <mergeCell ref="B15:M19"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="C20:C23"/>
@@ -3757,15 +2889,833 @@
     <mergeCell ref="K20:K23"/>
     <mergeCell ref="L20:L23"/>
     <mergeCell ref="M20:M23"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDC7D5B-35F7-44FF-80A9-1A3FB56DDEE9}">
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="13" width="15.640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="4">
+        <v>0.44791666666666702</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="4">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" s="4">
+        <v>0.46875</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" s="4">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" s="4">
+        <v>0.48958333333333298</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" s="4">
+        <v>0.51041666666666696</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" s="4">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="4">
+        <v>0.53125</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="4">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="4">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" s="4">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19" s="4">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" s="4">
+        <v>0.59375</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" s="4">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22" s="4">
+        <v>0.61458333333333304</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A24" s="4">
+        <v>0.63541666666666696</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25" s="4">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A26" s="4">
+        <v>0.65625</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A27" s="4">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A28" s="4">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A29" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A30" s="4">
+        <v>0.69791666666666696</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A31" s="4">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A32" s="4">
+        <v>0.718749999999999</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A33" s="4">
+        <v>0.72916666666666496</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A34" s="4">
+        <v>0.73958333333333104</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A35" s="4">
+        <v>0.749999999999997</v>
+      </c>
+      <c r="B35" s="45"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A36" s="4">
+        <v>0.76041666666666297</v>
+      </c>
+      <c r="B36" s="45"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A37" s="4">
+        <v>0.77083333333332904</v>
+      </c>
+      <c r="B37" s="45"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A38" s="4">
+        <v>0.781249999999996</v>
+      </c>
+      <c r="B38" s="45"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A39" s="4">
+        <v>0.79166666666666197</v>
+      </c>
+      <c r="B39" s="46"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="66">
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="B3:M6"/>
     <mergeCell ref="B7:B10"/>
@@ -3782,6 +3732,56 @@
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="M11:M14"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="B15:M19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3839,110 +3839,110 @@
       <c r="A3" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="33" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3950,91 +3950,91 @@
       <c r="A8" s="4">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>0.5</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="33" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4042,52 +4042,52 @@
       <c r="A12" s="4">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
@@ -4180,40 +4180,40 @@
       <c r="A20" s="4">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="33" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4221,216 +4221,216 @@
       <c r="A21" s="4">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>0.625</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="33" t="s">
+      <c r="I24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
@@ -4453,14 +4453,14 @@
       <c r="A33" s="4">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
         <v>30</v>
       </c>
       <c r="F33" s="1"/>
@@ -4476,10 +4476,10 @@
       <c r="A34" s="4">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -4493,10 +4493,10 @@
       <c r="A35" s="4">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -4510,10 +4510,10 @@
       <c r="A36" s="4">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -4527,10 +4527,10 @@
       <c r="A37" s="4">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -4544,10 +4544,10 @@
       <c r="A38" s="4">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -4561,10 +4561,10 @@
       <c r="A39" s="4">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -4576,56 +4576,6 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="B15:M19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K20:K23"/>
-    <mergeCell ref="L20:L23"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="B3:M6"/>
     <mergeCell ref="B7:B10"/>
@@ -4642,6 +4592,56 @@
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="M11:M14"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="B15:M19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="K20:K23"/>
+    <mergeCell ref="L20:L23"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4696,81 +4696,81 @@
       <c r="A3" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:10" ht="42.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="58" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="47" t="s">
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="48" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4778,71 +4778,71 @@
       <c r="A8" s="4">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="9"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="42" t="s">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="9"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>0.5</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="58" t="s">
+      <c r="D11" s="72"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="47" t="s">
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="48" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4850,327 +4850,327 @@
       <c r="A12" s="4">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="9"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="42" t="s">
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="63" t="s">
+      <c r="I13" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="9"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="9"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="4">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66" t="s">
+      <c r="D20" s="60"/>
+      <c r="E20" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="9"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="4">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="9"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="9"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" ht="25.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>0.625</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="9"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="42"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
@@ -5188,14 +5188,14 @@
       <c r="A33" s="4">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37" t="s">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14" t="s">
         <v>30</v>
       </c>
       <c r="F33" s="6"/>
@@ -5206,10 +5206,10 @@
       <c r="A34" s="4">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -5218,10 +5218,10 @@
       <c r="A35" s="4">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -5230,10 +5230,10 @@
       <c r="A36" s="4">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -5242,10 +5242,10 @@
       <c r="A37" s="4">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -5254,10 +5254,10 @@
       <c r="A38" s="4">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -5266,22 +5266,40 @@
       <c r="A39" s="4">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B3:J6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:E14"/>
+    <mergeCell ref="F7:I8"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="F11:I12"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="B15:J19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:I23"/>
+    <mergeCell ref="J20:J23"/>
     <mergeCell ref="H24:H27"/>
     <mergeCell ref="I24:I27"/>
     <mergeCell ref="J24:J27"/>
@@ -5298,30 +5316,12 @@
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="E24:E27"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="B15:J19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="B3:J6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:E14"/>
-    <mergeCell ref="F7:I8"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="F11:I12"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="F24:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5331,13 +5331,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B1695B-ECED-441B-A208-4A454C8BA59E}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="78" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5377,7 +5376,7 @@
       <c r="A6" s="4">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5385,43 +5384,43 @@
       <c r="A7" s="4">
         <v>0.46875</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="48"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B8" s="47"/>
+      <c r="B8" s="48"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="4">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="48"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>0.5</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="48"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="48"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="48"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="48"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
@@ -5467,7 +5466,7 @@
       <c r="A20" s="4">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="48" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5475,37 +5474,37 @@
       <c r="A21" s="4">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="48"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>0.625</v>
       </c>
-      <c r="B22" s="47"/>
+      <c r="B22" s="48"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="4">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B23" s="47"/>
+      <c r="B23" s="48"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="4">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B24" s="47"/>
+      <c r="B24" s="48"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="4">
         <v>0.65625</v>
       </c>
-      <c r="B25" s="47"/>
+      <c r="B25" s="48"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="4">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="48" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5513,19 +5512,19 @@
       <c r="A27" s="4">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B27" s="47"/>
+      <c r="B27" s="48"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>0.6875</v>
       </c>
-      <c r="B28" s="47"/>
+      <c r="B28" s="48"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="44" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5533,13 +5532,13 @@
       <c r="A30" s="4">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B30" s="46"/>
+      <c r="B30" s="44"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>0.718749999999999</v>
       </c>
-      <c r="B31" s="46"/>
+      <c r="B31" s="44"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
@@ -5588,44 +5587,80 @@
       <c r="B38" s="76"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="4">
+        <v>0.80208333333332804</v>
+      </c>
       <c r="B39" s="76"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="4">
+        <v>0.812499999999994</v>
+      </c>
       <c r="B40" s="76"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="4">
+        <v>0.82291666666665997</v>
+      </c>
       <c r="B41" s="75" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="4">
+        <v>0.83333333333332604</v>
+      </c>
       <c r="B42" s="75"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="4">
+        <v>0.84374999999999201</v>
+      </c>
       <c r="B43" s="75"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B44" s="46" t="s">
+      <c r="A44" s="4">
+        <v>0.85416666666665797</v>
+      </c>
+      <c r="B44" s="44" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B45" s="46"/>
+      <c r="A45" s="4">
+        <v>0.86458333333332404</v>
+      </c>
+      <c r="B45" s="44"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B46" s="46"/>
+      <c r="A46" s="4">
+        <v>0.87499999999999101</v>
+      </c>
+      <c r="B46" s="44"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B47" s="46"/>
+      <c r="A47" s="4">
+        <v>0.88541666666665697</v>
+      </c>
+      <c r="B47" s="44"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B48" s="46"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B49" s="46"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B50" s="46"/>
+      <c r="A48" s="4">
+        <v>0.89583333333332305</v>
+      </c>
+      <c r="B48" s="44"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="4">
+        <v>0.90624999999998901</v>
+      </c>
+      <c r="B49" s="44"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="4">
+        <v>0.91666666666665497</v>
+      </c>
+      <c r="B50" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/input/harp-CampB-time-table.xlsx
+++ b/input/harp-CampB-time-table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapmi\Desktop\summer-camp-time-table\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmski\Desktop\Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345ECC48-EAA9-4086-9C7A-1554C3F4A648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A305345E-08D2-4C84-852A-40AFAD0BCAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="338" yWindow="653" windowWidth="14969" windowHeight="11272" activeTab="5" xr2:uid="{49A5FFD0-B874-4A88-A25B-305D472287FF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="5" xr2:uid="{49A5FFD0-B874-4A88-A25B-305D472287FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="1" r:id="rId1"/>
@@ -2926,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDC7D5B-35F7-44FF-80A9-1A3FB56DDEE9}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M6"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -5331,12 +5331,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B1695B-ECED-441B-A208-4A454C8BA59E}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="78" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="78" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5582,25 +5583,25 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
-        <v>0.79166666666666197</v>
+        <v>0.79166666666666297</v>
       </c>
       <c r="B38" s="76"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="4">
-        <v>0.80208333333332804</v>
+        <v>0.80208333333333004</v>
       </c>
       <c r="B39" s="76"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
-        <v>0.812499999999994</v>
+        <v>0.812499999999997</v>
       </c>
       <c r="B40" s="76"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
-        <v>0.82291666666665997</v>
+        <v>0.82291666666666397</v>
       </c>
       <c r="B41" s="75" t="s">
         <v>41</v>
@@ -5608,19 +5609,19 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
-        <v>0.83333333333332604</v>
+        <v>0.83333333333333104</v>
       </c>
       <c r="B42" s="75"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
-        <v>0.84374999999999201</v>
+        <v>0.843749999999998</v>
       </c>
       <c r="B43" s="75"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
-        <v>0.85416666666665797</v>
+        <v>0.85416666666666496</v>
       </c>
       <c r="B44" s="44" t="s">
         <v>42</v>
@@ -5628,37 +5629,37 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
-        <v>0.86458333333332404</v>
+        <v>0.86458333333333204</v>
       </c>
       <c r="B45" s="44"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
-        <v>0.87499999999999101</v>
+        <v>0.874999999999999</v>
       </c>
       <c r="B46" s="44"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="4">
-        <v>0.88541666666665697</v>
+        <v>0.88541666666666596</v>
       </c>
       <c r="B47" s="44"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
-        <v>0.89583333333332305</v>
+        <v>0.89583333333333304</v>
       </c>
       <c r="B48" s="44"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="4">
-        <v>0.90624999999998901</v>
+        <v>0.90625</v>
       </c>
       <c r="B49" s="44"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="4">
-        <v>0.91666666666665497</v>
+        <v>0.91666666666666596</v>
       </c>
       <c r="B50" s="44"/>
     </row>
